--- a/biology/Botanique/Jardin_botanique_de_Heidelberg/Jardin_botanique_de_Heidelberg.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Heidelberg/Jardin_botanique_de_Heidelberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Heidelberg (Botanischer Garten Heidelberg) est un jardin botanique d'Allemagne dépendant de l'université de Heidelberg, situé  dans le quartier de Neuenheim au nord du Neckar à Heidelberg. Il s'étend sur deux hectares. C'est un département du Centre for Organismal Studies (COS). Son code d'identification internationale est HEID.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un Hortus medicus est créé en 1593 à l'université de Heidelberg. C'est donc le troisième jardin botanique le plus ancien d'Allemagne. Il a changé sept fois de lieu au cours de son histoire.
 Il a été ouvert à son emplacement actuel en 1915, à l'initiative de Georg Albrecht Klebs et de son jardinier en chef Erich Behnick. La plupart de ses collections ont été détruites pendant les bombardements de la Seconde Guerre mondiale.
@@ -544,9 +558,11 @@
           <t>Aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique de Heidelberg possède environ 13 000 plantes en culture, pour 4 800 espèces ou sous-espèces. Il est réputé pour ses collections de serre, réparties en onze sections, pour une surface totale de 4 000 m2[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique de Heidelberg possède environ 13 000 plantes en culture, pour 4 800 espèces ou sous-espèces. Il est réputé pour ses collections de serre, réparties en onze sections, pour une surface totale de 4 000 m2 :
 Succulentes de l'Ancien Monde (sauf Madagascar) ;
 Succulentes de Madagascar ;
 Succulentes du Nouveau Monde ;
@@ -588,7 +604,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Serre des broméliacées
@@ -623,7 +641,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Botanischer Garten der Universität Heidelberg (BGCI)</t>
         </is>
